--- a/data/tle/2020-02-12_CEI.xlsx
+++ b/data/tle/2020-02-12_CEI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B71EF-42C1-6644-BBBD-B1D37C7B44B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C41C288-DE28-6543-9B0E-2D3CD541471C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="940" windowWidth="27640" windowHeight="16000" xr2:uid="{95812F95-F459-FF47-9666-98D8637D2352}"/>
   </bookViews>
@@ -881,19 +881,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,122 +1254,122 @@
       <c r="B1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="31"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
       <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="34"/>
       <c r="Y1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="31"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="34"/>
       <c r="AE1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AF1" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="31"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29">
-        <v>43872</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="35">
+        <v>43873</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="29">
-        <v>43872</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="H2" s="35">
+        <v>43873</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="35">
         <v>43873</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
       <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="29">
+      <c r="T2" s="35">
         <v>43873</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="31"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="34"/>
       <c r="Y2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="29">
+      <c r="Z2" s="35">
         <v>43873</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="34"/>
       <c r="AE2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="29">
+      <c r="AF2" s="35">
         <v>43873</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="34"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1378,122 +1378,122 @@
       <c r="B3" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
       <c r="S3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="34"/>
       <c r="Y3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Z3" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="31"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="34"/>
       <c r="AE3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AF3" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="31"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="34"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="29">
         <v>139</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="29">
         <v>140</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
       <c r="M4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="29">
         <v>141</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="35"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
       <c r="S4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="29">
         <v>142</v>
       </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="31"/>
       <c r="Y4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="29">
         <v>143</v>
       </c>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="35"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="31"/>
       <c r="AE4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="33">
+      <c r="AF4" s="29">
         <v>144</v>
       </c>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="35"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="31"/>
     </row>
     <row r="5" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -5359,6 +5359,18 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AF4:AJ4"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
@@ -5371,18 +5383,6 @@
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="T4:X4"/>
     <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Z2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/tle/2020-02-12_CEI.xlsx
+++ b/data/tle/2020-02-12_CEI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C41C288-DE28-6543-9B0E-2D3CD541471C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67377A5C-0972-F345-B061-1B265E47C7CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="940" windowWidth="27640" windowHeight="16000" xr2:uid="{95812F95-F459-FF47-9666-98D8637D2352}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="206">
   <si>
     <t>Name</t>
   </si>
@@ -375,9 +375,6 @@
     <t>9,1,2</t>
   </si>
   <si>
-    <t>6,2,2</t>
-  </si>
-  <si>
     <t>11,7,1,6,2</t>
   </si>
   <si>
@@ -516,9 +513,6 @@
     <t>17,3,8,1,1,3,2</t>
   </si>
   <si>
-    <t>18,2,2,6,1</t>
-  </si>
-  <si>
     <t>19,4,4,6,5,1</t>
   </si>
   <si>
@@ -646,6 +640,15 @@
   </si>
   <si>
     <t>CEI</t>
+  </si>
+  <si>
+    <t>18,2,2,5,1,5</t>
+  </si>
+  <si>
+    <t>6,2,2,1</t>
+  </si>
+  <si>
+    <t>5,3,3,5</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B2FBFF-24C1-0B45-99C9-3C3435C2EF7C}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U1" s="33"/>
       <c r="V1" s="33"/>
@@ -1302,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33"/>
@@ -1376,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -1386,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
@@ -1396,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
@@ -1406,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="33"/>
@@ -1416,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="Z3" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA3" s="33"/>
       <c r="AB3" s="33"/>
@@ -1426,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG3" s="33"/>
       <c r="AH3" s="33"/>
@@ -1649,7 +1652,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P6" s="11">
         <v>134</v>
@@ -1658,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>11</v>
@@ -1676,7 +1679,7 @@
         <v>8</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Y6" s="5">
         <v>133</v>
@@ -1694,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AE6" s="8" t="s">
         <v>11</v>
@@ -1712,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1749,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="16">
@@ -1763,7 +1766,7 @@
         <v>17</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V7" s="14"/>
       <c r="W7" s="6" t="s">
@@ -1784,21 +1787,21 @@
         <v>2</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE7" s="14"/>
       <c r="AF7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="AG7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AH7" s="14"/>
       <c r="AI7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1835,7 +1838,7 @@
         <v>22</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="16">
@@ -1849,35 +1852,35 @@
         <v>22</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y8" s="13"/>
       <c r="Z8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="16">
         <v>3</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE8" s="14"/>
       <c r="AF8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AH8" s="14"/>
       <c r="AI8" s="6" t="s">
@@ -1935,7 +1938,7 @@
         <v>27</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="V9" s="14"/>
       <c r="W9" s="6" t="s">
@@ -1956,14 +1959,14 @@
         <v>4</v>
       </c>
       <c r="AD9" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE9" s="14"/>
       <c r="AF9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AG9" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH9" s="14"/>
       <c r="AI9" s="6" t="s">
@@ -2007,28 +2010,28 @@
         <v>33</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="16">
         <v>5</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="17" t="s">
         <v>33</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V10" s="14"/>
       <c r="W10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="17" t="s">
@@ -2042,14 +2045,14 @@
         <v>5</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE10" s="14"/>
       <c r="AF10" s="17" t="s">
         <v>33</v>
       </c>
       <c r="AG10" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AH10" s="14"/>
       <c r="AI10" s="6" t="s">
@@ -2112,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>41</v>
@@ -2121,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V11" s="6" t="s">
         <v>43</v>
@@ -2130,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Y11" s="20">
         <v>125</v>
@@ -2157,7 +2160,7 @@
         <v>8</v>
       </c>
       <c r="AG11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AH11" s="6" t="s">
         <v>43</v>
@@ -2217,7 +2220,7 @@
         <v>17</v>
       </c>
       <c r="U12" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V12" s="14"/>
       <c r="W12" s="6" t="s">
@@ -2238,21 +2241,21 @@
         <v>2</v>
       </c>
       <c r="AD12" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE12" s="14"/>
       <c r="AF12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="AG12" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AH12" s="14"/>
       <c r="AI12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="AJ12" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,7 +2292,7 @@
         <v>22</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="16">
@@ -2338,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="AJ13" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2382,14 +2385,14 @@
         <v>4</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="V14" s="14"/>
       <c r="W14" s="6" t="s">
@@ -2417,14 +2420,14 @@
         <v>27</v>
       </c>
       <c r="AG14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AH14" s="14"/>
       <c r="AI14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AJ14" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2475,7 +2478,7 @@
         <v>33</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V15" s="14"/>
       <c r="W15" s="6" t="s">
@@ -2503,14 +2506,14 @@
         <v>33</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AH15" s="14"/>
       <c r="AI15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="AJ15" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2557,7 +2560,7 @@
         <v>8</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P16" s="16">
         <v>95</v>
@@ -2566,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>55</v>
@@ -2593,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB16" s="16">
         <v>95</v>
@@ -2602,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="AD16" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>55</v>
@@ -2611,7 +2614,7 @@
         <v>8</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AH16" s="6" t="s">
         <v>56</v>
@@ -2655,21 +2658,21 @@
         <v>17</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="16">
         <v>2</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S17" s="14"/>
       <c r="T17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="U17" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V17" s="14"/>
       <c r="W17" s="6" t="s">
@@ -2690,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="AD17" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE17" s="14"/>
       <c r="AF17" s="21" t="s">
@@ -2739,14 +2742,14 @@
         <v>22</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="16">
         <v>3</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S18" s="14"/>
       <c r="T18" s="6" t="s">
@@ -2767,21 +2770,21 @@
         <v>22</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB18" s="15"/>
       <c r="AC18" s="16">
         <v>3</v>
       </c>
       <c r="AD18" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE18" s="14"/>
       <c r="AF18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AG18" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AH18" s="14"/>
       <c r="AI18" s="6" t="s">
@@ -2823,21 +2826,21 @@
         <v>27</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="16">
         <v>4</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V19" s="14"/>
       <c r="W19" s="6" t="s">
@@ -2851,21 +2854,21 @@
         <v>27</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB19" s="15"/>
       <c r="AC19" s="16">
         <v>4</v>
       </c>
       <c r="AD19" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE19" s="14"/>
       <c r="AF19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH19" s="14"/>
       <c r="AI19" s="6" t="s">
@@ -2907,21 +2910,21 @@
         <v>33</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="16">
         <v>5</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="17" t="s">
         <v>33</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V20" s="14"/>
       <c r="W20" s="6" t="s">
@@ -2935,14 +2938,14 @@
         <v>33</v>
       </c>
       <c r="AA20" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB20" s="19"/>
       <c r="AC20" s="16">
         <v>5</v>
       </c>
       <c r="AD20" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE20" s="14"/>
       <c r="AF20" s="17" t="s">
@@ -2956,7 +2959,7 @@
         <v>33</v>
       </c>
       <c r="AJ20" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3003,7 +3006,7 @@
         <v>8</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>64</v>
@@ -3012,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>65</v>
@@ -3021,7 +3024,7 @@
         <v>8</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V21" s="6" t="s">
         <v>66</v>
@@ -3030,7 +3033,7 @@
         <v>8</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y21" s="20">
         <v>96</v>
@@ -3039,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="AA21" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB21" s="16" t="s">
         <v>64</v>
@@ -3057,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="AG21" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AH21" s="6" t="s">
         <v>66</v>
@@ -3103,7 +3106,7 @@
         <v>17</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="16">
@@ -3117,7 +3120,7 @@
         <v>17</v>
       </c>
       <c r="U22" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V22" s="14"/>
       <c r="W22" s="6" t="s">
@@ -3131,21 +3134,21 @@
         <v>17</v>
       </c>
       <c r="AA22" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB22" s="15"/>
       <c r="AC22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="AD22" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE22" s="14"/>
       <c r="AF22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="AG22" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH22" s="14"/>
       <c r="AI22" s="6" t="s">
@@ -3189,7 +3192,7 @@
         <v>22</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="16">
@@ -3203,7 +3206,7 @@
         <v>22</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V23" s="14"/>
       <c r="W23" s="6" t="s">
@@ -3217,14 +3220,14 @@
         <v>22</v>
       </c>
       <c r="AA23" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB23" s="15"/>
       <c r="AC23" s="16" t="s">
         <v>22</v>
       </c>
       <c r="AD23" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE23" s="14"/>
       <c r="AF23" s="6" t="s">
@@ -3275,14 +3278,14 @@
         <v>27</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="16">
         <v>4</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="6" t="s">
@@ -3303,7 +3306,7 @@
         <v>27</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB24" s="15"/>
       <c r="AC24" s="16" t="s">
@@ -3317,7 +3320,7 @@
         <v>27</v>
       </c>
       <c r="AG24" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AH24" s="14"/>
       <c r="AI24" s="6" t="s">
@@ -3361,7 +3364,7 @@
         <v>33</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="16">
@@ -3389,14 +3392,14 @@
         <v>33</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB25" s="19"/>
       <c r="AC25" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AD25" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE25" s="14"/>
       <c r="AF25" s="17" t="s">
@@ -3455,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>74</v>
@@ -3674,7 +3677,7 @@
         <v>22</v>
       </c>
       <c r="AJ28" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3709,7 +3712,7 @@
         <v>27</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="17" t="s">
@@ -3735,7 +3738,7 @@
         <v>27</v>
       </c>
       <c r="AA29" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB29" s="14"/>
       <c r="AC29" s="17" t="s">
@@ -3789,7 +3792,7 @@
         <v>33</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P30" s="25"/>
       <c r="Q30" s="26" t="s">

--- a/data/tle/2020-02-12_CEI.xlsx
+++ b/data/tle/2020-02-12_CEI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67377A5C-0972-F345-B061-1B265E47C7CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B388654B-8AEF-C044-9C40-116890C52799}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="940" windowWidth="27640" windowHeight="16000" xr2:uid="{95812F95-F459-FF47-9666-98D8637D2352}"/>
   </bookViews>
@@ -642,13 +642,13 @@
     <t>CEI</t>
   </si>
   <si>
-    <t>18,2,2,5,1,5</t>
-  </si>
-  <si>
     <t>6,2,2,1</t>
   </si>
   <si>
     <t>5,3,3,5</t>
+  </si>
+  <si>
+    <t>18,2,2,6,1,6</t>
   </si>
 </sst>
 </file>
@@ -884,19 +884,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B2FBFF-24C1-0B45-99C9-3C3435C2EF7C}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="I12" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1257,122 +1257,122 @@
       <c r="B1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="34"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
       <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="34"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31"/>
       <c r="Y1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="34"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="31"/>
       <c r="AE1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AF1" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="34"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="31"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="29">
         <v>43873</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="29">
         <v>43873</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35">
+      <c r="N2" s="29">
         <v>43873</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="35">
+      <c r="T2" s="29">
         <v>43873</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
       <c r="Y2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="35">
+      <c r="Z2" s="29">
         <v>43873</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="31"/>
       <c r="AE2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="35">
+      <c r="AF2" s="29">
         <v>43873</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="34"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1381,122 +1381,122 @@
       <c r="B3" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
       <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
       <c r="S3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="34"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="31"/>
       <c r="Y3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Z3" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="34"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="31"/>
       <c r="AE3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AF3" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="34"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="31"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="33">
         <v>139</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="33">
         <v>140</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="33">
         <v>141</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="35"/>
       <c r="S4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="33">
         <v>142</v>
       </c>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="35"/>
       <c r="Y4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="33">
         <v>143</v>
       </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="31"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="35"/>
       <c r="AE4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="29">
+      <c r="AF4" s="33">
         <v>144</v>
       </c>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="31"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="35"/>
     </row>
     <row r="5" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1866,7 +1866,7 @@
         <v>22</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="16">
@@ -2031,7 +2031,7 @@
         <v>33</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="17" t="s">
@@ -3192,7 +3192,7 @@
         <v>22</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="16">
@@ -5362,6 +5362,18 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="Z4:AD4"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
@@ -5374,18 +5386,6 @@
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="T2:X2"/>
     <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="Z4:AD4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
